--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FAE79E78-05DF-4C45-A819-050E256D66FF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{041F323C-9246-4DC7-B406-3F3E6F628F5D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Управление:</t>
-  </si>
-  <si>
-    <t>Наличие датчика положения 4-20 mA:</t>
   </si>
   <si>
     <t>Наличие возвратного механизма:</t>
@@ -142,10 +139,6 @@
     <t>Потребл. мощность, W</t>
   </si>
   <si>
-    <t>Наличие датчика положения
-4-20 mA</t>
-  </si>
-  <si>
     <t>Марка клапана:</t>
   </si>
   <si>
@@ -169,10 +162,6 @@
 не более</t>
   </si>
   <si>
-    <t>4-20 mA
-(2-10 V)</t>
-  </si>
-  <si>
     <t>Рекомендуемая скорость управления для электроприводов TSL-1600, TSL-2200, TSL-3000:
 - системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-100 - 6 сек/мм (10 мм/мин);
 - система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-100 - 2,4 сек/мм (25 мм/мин).</t>
@@ -200,6 +189,18 @@
   </si>
   <si>
     <t>Датчики температуры поставляются отдельно.</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения
+0(4)-20 mA,
+0(2)-10 V</t>
+  </si>
+  <si>
+    <t>0(4)-20 mA,
+0(2)-10 V</t>
+  </si>
+  <si>
+    <t>Наличие датчика положения 0(4)-20 mA:</t>
   </si>
 </sst>
 </file>
@@ -413,82 +414,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,12 +856,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -878,16 +879,16 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -902,21 +903,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -931,12 +932,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -958,19 +959,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -985,18 +986,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="A7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1012,18 +1013,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="A8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1039,20 +1040,20 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="A9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1068,18 +1069,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="A10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1095,13 +1096,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1122,21 +1123,21 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="26"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1151,21 +1152,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="26"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1180,13 +1181,13 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1207,19 +1208,19 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1234,19 +1235,19 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="A16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1286,29 +1287,29 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="15"/>
+      <c r="J18" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="37"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1323,17 +1324,17 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1348,13 +1349,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1375,34 +1376,34 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>30</v>
+      <c r="K21" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1418,25 +1419,25 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1476,19 +1477,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1503,19 +1504,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="A25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1530,19 +1531,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="A26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1557,19 +1558,19 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="A27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1611,14 +1612,14 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="D29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="D29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1639,14 +1640,14 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="D30" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1667,14 +1668,14 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="D31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1695,14 +1696,14 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="D32" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -2577,19 +2578,34 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:B6"/>
@@ -2606,37 +2622,22 @@
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{041F323C-9246-4DC7-B406-3F3E6F628F5D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{575311B4-7060-497C-A0EC-1C13AF20E693}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -426,27 +474,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -463,33 +490,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,9 +520,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>612774</xdr:colOff>
+      <xdr:colOff>213359</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>10835</xdr:rowOff>
+      <xdr:rowOff>16550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,21 +829,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
     <col min="3" max="5" width="7.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.109375" style="2"/>
   </cols>
   <sheetData>
@@ -856,12 +855,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -879,16 +878,16 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -903,21 +902,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -932,12 +931,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -959,19 +958,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -986,18 +985,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1013,18 +1012,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1040,18 +1039,18 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1069,18 +1068,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1096,13 +1095,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1123,21 +1122,21 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="31" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1152,21 +1151,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="31" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1181,13 +1180,13 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1208,19 +1207,19 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1235,19 +1234,19 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1287,29 +1286,29 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1324,17 +1323,17 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1349,13 +1348,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1376,33 +1375,33 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="27" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="2"/>
@@ -1419,25 +1418,25 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1451,7 +1450,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1477,19 +1476,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1504,19 +1503,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1531,19 +1530,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1558,19 +1557,19 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1612,11 +1611,11 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11" t="s">
         <v>17</v>
@@ -1640,11 +1639,11 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>17</v>
@@ -1668,11 +1667,11 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>17</v>
@@ -1696,11 +1695,11 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
         <v>31</v>
@@ -2578,6 +2577,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="E16:K16"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
@@ -2594,50 +2637,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{575311B4-7060-497C-A0EC-1C13AF20E693}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EEAF690-FA88-4522-994E-A668C6F80ED2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,70 +489,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,8 +519,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16550</xdr:rowOff>
     </xdr:to>
@@ -552,7 +552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1"/>
-          <a:ext cx="6334125" cy="804584"/>
+          <a:ext cx="6969125" cy="810299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -829,25 +829,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="7.5546875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="3" customWidth="1"/>
-    <col min="12" max="23" width="9.109375" style="2"/>
+    <col min="1" max="1" width="16.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="7.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
+    <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -855,12 +855,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -874,20 +874,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -901,22 +901,22 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="34" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -930,13 +930,13 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -957,20 +957,20 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -984,19 +984,19 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1011,19 +1011,19 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1038,19 +1038,19 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1067,19 +1067,19 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1094,14 +1094,14 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1121,22 +1121,22 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="24"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1150,22 +1150,22 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="19" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="24"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1179,14 +1179,14 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1206,20 +1206,20 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1233,20 +1233,20 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1260,7 +1260,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1285,30 +1285,30 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1322,18 +1322,18 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1347,14 +1347,14 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1374,34 +1374,34 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="33" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="2"/>
@@ -1417,26 +1417,26 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1450,7 +1450,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1475,20 +1475,20 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1502,20 +1502,20 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1529,20 +1529,20 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1556,20 +1556,20 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1583,7 +1583,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
@@ -1608,14 +1608,14 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11" t="s">
         <v>17</v>
@@ -1636,14 +1636,14 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>17</v>
@@ -1664,14 +1664,14 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>17</v>
@@ -1692,14 +1692,14 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
         <v>31</v>
@@ -1720,7 +1720,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
@@ -1745,7 +1745,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1770,7 +1770,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1795,7 +1795,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1815,7 +1815,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1835,7 +1835,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1855,7 +1855,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1875,7 +1875,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1900,7 +1900,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1925,7 +1925,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1950,7 +1950,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1975,7 +1975,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2000,7 +2000,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2025,7 +2025,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2050,7 +2050,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2075,7 +2075,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2100,7 +2100,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2125,7 +2125,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2150,7 +2150,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2175,7 +2175,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2200,7 +2200,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2225,7 +2225,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2250,7 +2250,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2275,7 +2275,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2300,7 +2300,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2325,7 +2325,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2350,7 +2350,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2375,7 +2375,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2400,7 +2400,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2425,7 +2425,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2450,7 +2450,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2475,7 +2475,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2500,7 +2500,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2525,7 +2525,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2550,7 +2550,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2577,6 +2577,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -2593,50 +2637,6 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EEAF690-FA88-4522-994E-A668C6F80ED2}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{087A9D69-4FF1-46ED-A610-7935DD931DA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,9 +414,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -426,27 +474,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -463,33 +490,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,16 +511,16 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>531812</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16550</xdr:rowOff>
     </xdr:to>
@@ -534,7 +534,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -551,8 +551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="6969125" cy="810299"/>
+          <a:off x="1" y="1"/>
+          <a:ext cx="6635749" cy="810299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,12 +855,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -878,16 +878,16 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -902,21 +902,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -931,12 +931,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -958,19 +958,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -985,18 +985,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1012,18 +1012,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1039,18 +1039,18 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1068,18 +1068,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1095,13 +1095,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1122,21 +1122,21 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="31" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1151,21 +1151,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="31" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1180,13 +1180,13 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1207,19 +1207,19 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1234,19 +1234,19 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1286,29 +1286,29 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1323,17 +1323,17 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1348,13 +1348,13 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1375,33 +1375,33 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="27" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="2"/>
@@ -1418,25 +1418,25 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1476,19 +1476,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1503,19 +1503,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1530,19 +1530,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1557,19 +1557,19 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1611,11 +1611,11 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11" t="s">
         <v>17</v>
@@ -1639,11 +1639,11 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>17</v>
@@ -1667,11 +1667,11 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>17</v>
@@ -1695,11 +1695,11 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
         <v>31</v>
@@ -2577,6 +2577,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="E16:K16"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
@@ -2593,50 +2637,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{087A9D69-4FF1-46ED-A610-7935DD931DA6}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E67A324-39E0-44FA-A81E-22B25D2CE2F4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>531812</xdr:colOff>
+      <xdr:colOff>500062</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16550</xdr:rowOff>
     </xdr:to>
@@ -552,7 +552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1" y="1"/>
-          <a:ext cx="6635749" cy="810299"/>
+          <a:ext cx="6603999" cy="810299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,11 +838,12 @@
     <col min="1" max="1" width="16.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="5" width="7.5703125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E67A324-39E0-44FA-A81E-22B25D2CE2F4}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86632291-6E1F-480A-B6F2-053C29147B4A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Наличие датчика положения 0(4)-20 mA:</t>
+  </si>
+  <si>
+    <t>Наличие функции регулирования температуры (датчик температуры подключается к электроприводу):</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -373,11 +376,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,6 +426,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,19 +450,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,12 +877,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -879,16 +900,16 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -903,21 +924,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="34" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -932,12 +953,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -959,19 +980,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -986,18 +1007,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1013,18 +1034,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1040,18 +1061,18 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1069,18 +1090,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1096,13 +1117,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1123,21 +1144,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="24"/>
+      <c r="A12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1152,21 +1171,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="24"/>
+      <c r="A13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1181,19 +1200,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1208,19 +1229,19 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="A15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1235,19 +1256,19 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="A16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1261,18 +1282,20 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1286,30 +1309,18 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="16"/>
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1323,18 +1334,30 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="21"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1348,20 +1371,18 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1375,36 +1396,20 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>29</v>
-      </c>
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1418,26 +1423,36 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1451,18 +1466,26 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1476,20 +1499,18 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1503,20 +1524,20 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1530,20 +1551,20 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1558,19 +1579,19 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="A27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1584,18 +1605,20 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1612,15 +1635,12 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="D29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1640,11 +1660,11 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="D30" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>17</v>
@@ -1668,11 +1688,11 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="D31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>17</v>
@@ -1696,14 +1716,14 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="D32" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1721,15 +1741,18 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="D33" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1746,11 +1769,11 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1796,7 +1819,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1811,12 +1834,17 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1891,11 +1919,6 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -2351,7 +2374,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2476,7 +2499,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2576,9 +2599,34 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A27:K27"/>
+  <mergeCells count="62">
+    <mergeCell ref="A28:K28"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -2590,54 +2638,56 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="E17:K17"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\Бланки расчетных листов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_BF75866BF381D04D8324B533D1B7A840C737EFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86632291-6E1F-480A-B6F2-053C29147B4A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -70,9 +69,6 @@
   </si>
   <si>
     <t>Максимальное рабочее давление:</t>
-  </si>
-  <si>
-    <t>Рекомендуемая скорость управления для электроприводов TW500, TW1001, TW3000 - 2 сек/мм (30 мм/мин).</t>
   </si>
   <si>
     <r>
@@ -162,11 +158,6 @@
 не более</t>
   </si>
   <si>
-    <t>Рекомендуемая скорость управления для электроприводов TSL-1600, TSL-2200, TSL-3000:
-- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-100 - 6 сек/мм (10 мм/мин);
-- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-100 - 2,4 сек/мм (25 мм/мин).</t>
-  </si>
-  <si>
     <t>Наличие возврат- ного меха- низма</t>
   </si>
   <si>
@@ -204,12 +195,17 @@
   </si>
   <si>
     <t>Наличие функции регулирования температуры (датчик температуры подключается к электроприводу):</t>
+  </si>
+  <si>
+    <t>Рекомендуемая скорость управления для электроприводов TSL:
+- системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-150 - 6 сек/мм (10 мм/мин);
+- система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-150 - 2,4 сек/мм (25 мм/мин).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,91 +422,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -847,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:K14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,12 +873,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -900,16 +896,16 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -924,21 +920,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -953,12 +949,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -980,19 +976,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1007,18 +1003,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="A7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1034,18 +1030,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="A8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1061,20 +1057,20 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="A9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1090,18 +1086,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="A10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1117,13 +1113,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1144,19 +1140,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1171,21 +1167,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1200,21 +1196,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1229,13 +1225,13 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1256,19 +1252,19 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1283,19 +1279,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1335,29 +1331,29 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="21"/>
+      <c r="J19" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="40"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1372,17 +1368,17 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1397,13 +1393,13 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1424,34 +1420,34 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>29</v>
+      <c r="K22" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1467,25 +1463,25 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+        <v>44</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1525,19 +1521,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1552,19 +1548,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="A26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1578,20 +1574,18 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1606,19 +1600,19 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="A28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1660,14 +1654,14 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="D30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1688,14 +1682,14 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="D31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1716,14 +1710,14 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1744,14 +1738,14 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="D33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2626,6 +2620,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -2642,52 +2682,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\Бланки расчетных листов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF0A32-EB6B-4760-A2F6-72A14B7A87FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="11715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -57,9 +58,6 @@
   </si>
   <si>
     <t>Управление:</t>
-  </si>
-  <si>
-    <t>Наличие возвратного механизма:</t>
   </si>
   <si>
     <t>Результат расчета регулирующего клапана</t>
@@ -158,9 +156,6 @@
 не более</t>
   </si>
   <si>
-    <t>Наличие возврат- ного меха- низма</t>
-  </si>
-  <si>
     <t>Пропускная способность Kvs, м³/ч</t>
   </si>
   <si>
@@ -200,12 +195,18 @@
     <t>Рекомендуемая скорость управления для электроприводов TSL:
 - системы отопления и вентиляции: для Ду15-50 мм - 8 сек/мм (7,5 мм/мин); для Ду65-150 - 6 сек/мм (10 мм/мин);
 - система горячего водоснабжения: для Ду15-50 мм - 4 сек/мм (15 мм/мин); для Ду65-150 - 2,4 сек/мм (25 мм/мин).</t>
+  </si>
+  <si>
+    <t>Наличие функции безопасности:</t>
+  </si>
+  <si>
+    <t>Наличие функции безопас-ности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,6 +426,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -434,27 +492,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -471,42 +508,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -843,24 +844,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J19" sqref="J19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="7.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -873,12 +874,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -896,16 +897,16 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -920,21 +921,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -949,12 +950,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -976,19 +977,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1003,18 +1004,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="A7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1030,18 +1031,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1057,20 +1058,20 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="A9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1086,18 +1087,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="A10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1113,13 +1114,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1140,19 +1141,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
+      <c r="A12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1167,21 +1168,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1196,21 +1197,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1225,13 +1226,13 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1252,19 +1253,19 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="A16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1279,19 +1280,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="A17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1331,29 +1332,29 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="39" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="40"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="40"/>
+      <c r="J19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="22"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1368,17 +1369,17 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1393,13 +1394,13 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="A21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1420,34 +1421,34 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
+      <c r="F22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="G22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>28</v>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1463,25 +1464,25 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1522,7 +1523,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1549,7 +1550,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1601,7 +1602,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1654,14 +1655,14 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="D30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1682,14 +1683,14 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="D31" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1710,14 +1711,14 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="D32" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1738,14 +1739,14 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="D33" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2620,6 +2621,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="J12:K12"/>
@@ -2636,52 +2683,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF0A32-EB6B-4760-A2F6-72A14B7A87FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA0C58-9B6E-491B-9EA0-A7D563D6AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Скорость в выходном сечении клапана V, м/с</t>
-  </si>
-  <si>
-    <t>Шум, некачественное регулирование</t>
   </si>
   <si>
     <t>Дата расчета:</t>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Наличие функции безопас-ности</t>
+  </si>
+  <si>
+    <t>Шум, колебатель-ный режим</t>
   </si>
 </sst>
 </file>
@@ -847,18 +847,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.28515625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
@@ -875,7 +877,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="35"/>
@@ -895,7 +897,7 @@
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -922,14 +924,14 @@
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="39"/>
@@ -951,7 +953,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -978,7 +980,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="29"/>
@@ -1005,7 +1007,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1032,7 +1034,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1059,7 +1061,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1071,7 +1073,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1088,7 +1090,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1115,7 +1117,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1142,7 +1144,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1169,14 +1171,14 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
       <c r="F13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1198,14 +1200,14 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
       <c r="F14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1227,7 +1229,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1254,7 +1256,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -1281,7 +1283,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -1341,7 +1343,7 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="21" t="s">
@@ -1349,10 +1351,10 @@
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="8" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="2"/>
@@ -1395,7 +1397,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -1422,33 +1424,33 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="G22" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1467,18 +1469,18 @@
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -1523,7 +1525,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1550,7 +1552,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1602,7 +1604,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1656,13 +1658,13 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="D30" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1684,13 +1686,13 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="D31" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1712,13 +1714,13 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="D32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1740,13 +1742,13 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="D33" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA0C58-9B6E-491B-9EA0-A7D563D6AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7C08D-D760-4E1A-96A2-D96B20FC9135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <t>Наличие функции безопас-ности</t>
   </si>
   <si>
-    <t>Шум, колебатель-ный режим</t>
+    <t>Шум, колебательный режим</t>
   </si>
 </sst>
 </file>
@@ -426,24 +426,81 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,63 +508,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,7 +848,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:I23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,12 +876,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -899,16 +899,16 @@
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -923,21 +923,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="37" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -952,12 +952,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -979,19 +979,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1006,18 +1006,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1033,18 +1033,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1060,18 +1060,18 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1089,18 +1089,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1116,13 +1116,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1143,19 +1143,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1170,21 +1170,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="15" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1199,21 +1199,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="15" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1228,13 +1228,13 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1255,19 +1255,19 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1282,19 +1282,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1334,29 +1334,29 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1371,17 +1371,17 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1396,13 +1396,13 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1423,33 +1423,33 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30" t="s">
+      <c r="H22" s="33"/>
+      <c r="I22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="33" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="2"/>
@@ -1466,25 +1466,25 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1657,11 +1657,11 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>14</v>
@@ -1685,11 +1685,11 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>14</v>
@@ -1713,11 +1713,11 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
         <v>14</v>
@@ -1741,11 +1741,11 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11" t="s">
         <v>28</v>
@@ -2623,6 +2623,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -2639,52 +2685,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7C08D-D760-4E1A-96A2-D96B20FC9135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117EDE6-A871-4B81-8BF7-195AAF19D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Марка регулирующего клапана</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Шум, колебательный режим</t>
+  </si>
+  <si>
+    <t>Расчетный диаметр:</t>
+  </si>
+  <si>
+    <t>Расчетная пропускная способность:</t>
   </si>
 </sst>
 </file>
@@ -423,6 +429,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -435,15 +456,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -474,12 +489,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -496,9 +505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,21 +854,21 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
@@ -876,12 +882,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -899,16 +905,16 @@
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -923,21 +929,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -952,12 +958,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -979,19 +985,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1006,18 +1012,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1033,18 +1039,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1060,18 +1066,18 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1089,18 +1095,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1143,19 +1149,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1170,21 +1176,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="31" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1199,21 +1205,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="31" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1228,13 +1234,13 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1255,19 +1261,21 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1282,19 +1290,21 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1396,13 +1406,13 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1423,33 +1433,33 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="34"/>
+      <c r="I22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="34" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="2"/>
@@ -1466,25 +1476,25 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1524,19 +1534,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1551,19 +1561,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1578,17 +1588,17 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1603,19 +1613,19 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1657,11 +1667,11 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>14</v>
@@ -1685,11 +1695,11 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>14</v>
@@ -1713,11 +1723,11 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
         <v>14</v>
@@ -1741,11 +1751,11 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11" t="s">
         <v>28</v>
@@ -2622,10 +2632,7 @@
       <c r="W68" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="J12:K12"/>
+  <mergeCells count="66">
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -2639,37 +2646,38 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A28:K28"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -2681,10 +2689,16 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117EDE6-A871-4B81-8BF7-195AAF19D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AA396D-7FDA-4102-BCD2-968629954E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>Потребл. мощность, W</t>
   </si>
   <si>
-    <t>Марка клапана:</t>
-  </si>
-  <si>
     <t>кг</t>
   </si>
   <si>
@@ -208,12 +205,15 @@
   <si>
     <t>Расчетная пропускная способность:</t>
   </si>
+  <si>
+    <t>Марка клапана/эл.привода:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,15 +286,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -392,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +420,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -444,74 +438,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -853,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,12 +864,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -905,16 +887,16 @@
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -929,21 +911,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="28" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -958,12 +940,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -985,19 +967,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1012,18 +994,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="A7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1039,18 +1021,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="A8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1066,18 +1048,18 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="A9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1095,18 +1077,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="A10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1122,13 +1104,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1149,19 +1131,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="A12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1176,21 +1158,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1205,21 +1187,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1234,13 +1216,13 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1261,21 +1243,21 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1290,21 +1272,21 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1344,29 +1326,29 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="40" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="37"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1381,17 +1363,17 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1406,13 +1388,13 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1434,10 +1416,10 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>20</v>
@@ -1454,10 +1436,10 @@
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="34" t="s">
         <v>26</v>
@@ -1482,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
@@ -1490,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
@@ -1534,19 +1516,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="A25" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1561,19 +1543,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="A26" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1588,17 +1570,17 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1613,19 +1595,19 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="A28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1667,11 +1649,11 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>14</v>
@@ -1695,11 +1677,11 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>14</v>
@@ -1723,11 +1705,11 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
         <v>14</v>
@@ -1751,14 +1733,14 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="D33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2633,20 +2615,14 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A25:K25"/>
@@ -2655,16 +2631,12 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="G16:I16"/>
@@ -2675,6 +2647,12 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="D32:F32"/>
@@ -2696,9 +2674,13 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AA396D-7FDA-4102-BCD2-968629954E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42496A8F-7D83-4E55-937F-05C6859C90B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,48 +420,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -472,27 +493,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:K4"/>
     </sheetView>
   </sheetViews>
@@ -844,14 +844,13 @@
     <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="7.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -864,12 +863,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -887,16 +886,16 @@
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -911,21 +910,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="28" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="16"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -940,12 +939,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -967,19 +966,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -994,18 +993,18 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1021,18 +1020,18 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1048,18 +1047,18 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1077,18 +1076,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1131,7 +1130,7 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="18"/>
@@ -1141,9 +1140,9 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1158,21 +1157,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1187,21 +1186,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1216,13 +1215,13 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1243,21 +1242,21 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1272,21 +1271,21 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1326,29 +1325,29 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="37"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1363,17 +1362,17 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1388,13 +1387,13 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1415,33 +1414,33 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="25" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="2"/>
@@ -1458,25 +1457,25 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1516,19 +1515,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1543,19 +1542,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1570,17 +1569,17 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1595,19 +1594,19 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1649,11 +1648,11 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11" t="s">
         <v>14</v>
@@ -1677,11 +1676,11 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11" t="s">
         <v>14</v>
@@ -1705,11 +1704,11 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11" t="s">
         <v>14</v>
@@ -1733,11 +1732,11 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11" t="s">
         <v>27</v>
@@ -2615,12 +2614,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="D30:F30"/>
@@ -2637,50 +2674,12 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateTRVSteam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42496A8F-7D83-4E55-937F-05C6859C90B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398944EC-318F-481D-BFFD-2842FBA7E314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,23 +383,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,9 +414,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -450,7 +444,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,48 +511,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>7936</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16550</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>785813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0D6D63-1324-4511-BF4C-B573EB6A9222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect l="1996" t="12024" r="2202"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="1"/>
-          <a:ext cx="6603999" cy="810299"/>
+          <a:off x="7936" y="0"/>
+          <a:ext cx="7059614" cy="785813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,12 +858,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -883,19 +878,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -910,21 +905,21 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -939,12 +934,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -966,19 +961,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -993,19 +988,19 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1020,19 +1015,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1047,19 +1042,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="13" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="2"/>
@@ -1076,19 +1071,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1103,13 +1098,13 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1130,19 +1125,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1157,21 +1152,21 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="16" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1186,21 +1181,21 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="16" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1215,13 +1210,13 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1242,21 +1237,21 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="16" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1271,21 +1266,21 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="16" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1325,29 +1320,29 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1362,17 +1357,17 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1387,19 +1382,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1414,33 +1409,33 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25" t="s">
+      <c r="H22" s="23"/>
+      <c r="I22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="23" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="2"/>
@@ -1457,25 +1452,25 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="8" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1490,17 +1485,17 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1515,19 +1510,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1542,19 +1537,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1569,17 +1564,17 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1594,19 +1589,19 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1623,11 +1618,11 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1648,13 +1643,13 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="3"/>
@@ -1676,13 +1671,13 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="3"/>
@@ -1704,13 +1699,13 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="3"/>
@@ -1732,13 +1727,13 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="3"/>
@@ -1760,8 +1755,8 @@
     <row r="34" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
